--- a/intro_course/data/raw/lab_results_20141201.xlsx
+++ b/intro_course/data/raw/lab_results_20141201.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
   <si>
     <t xml:space="preserve">case_id</t>
   </si>
@@ -20,9 +20,6 @@
     <t xml:space="preserve">Blood CT</t>
   </si>
   <si>
-    <t xml:space="preserve">694928</t>
-  </si>
-  <si>
     <t xml:space="preserve">86340d</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
     <t xml:space="preserve">6056ba</t>
   </si>
   <si>
-    <t xml:space="preserve">eb5aeb</t>
-  </si>
-  <si>
     <t xml:space="preserve">e64e04</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
     <t xml:space="preserve">7ca4c0</t>
   </si>
   <si>
-    <t xml:space="preserve">699d82</t>
-  </si>
-  <si>
     <t xml:space="preserve">30af4f</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t xml:space="preserve">8f654c</t>
   </si>
   <si>
-    <t xml:space="preserve">dc1730</t>
-  </si>
-  <si>
     <t xml:space="preserve">9b5dec</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t xml:space="preserve">f23f4e</t>
   </si>
   <si>
-    <t xml:space="preserve">6e9925</t>
-  </si>
-  <si>
     <t xml:space="preserve">668458</t>
   </si>
   <si>
@@ -95,9 +80,6 @@
     <t xml:space="preserve">2772c3</t>
   </si>
   <si>
-    <t xml:space="preserve">6f8014</t>
-  </si>
-  <si>
     <t xml:space="preserve">212254</t>
   </si>
   <si>
@@ -110,9 +92,6 @@
     <t xml:space="preserve">4c8369</t>
   </si>
   <si>
-    <t xml:space="preserve">fc801b</t>
-  </si>
-  <si>
     <t xml:space="preserve">890de4</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t xml:space="preserve">1e55cd</t>
   </si>
   <si>
-    <t xml:space="preserve">5b98ea</t>
-  </si>
-  <si>
     <t xml:space="preserve">53f6ed</t>
   </si>
   <si>
@@ -140,9 +116,6 @@
     <t xml:space="preserve">26c491</t>
   </si>
   <si>
-    <t xml:space="preserve">069ea8</t>
-  </si>
-  <si>
     <t xml:space="preserve">8fedec</t>
   </si>
   <si>
@@ -155,9 +128,6 @@
     <t xml:space="preserve">497372</t>
   </si>
   <si>
-    <t xml:space="preserve">137be7</t>
-  </si>
-  <si>
     <t xml:space="preserve">1fb87a</t>
   </si>
   <si>
@@ -170,9 +140,6 @@
     <t xml:space="preserve">a6ff85</t>
   </si>
   <si>
-    <t xml:space="preserve">1704ad</t>
-  </si>
-  <si>
     <t xml:space="preserve">d3ea55</t>
   </si>
   <si>
@@ -185,9 +152,6 @@
     <t xml:space="preserve">c2e83e</t>
   </si>
   <si>
-    <t xml:space="preserve">4b501e</t>
-  </si>
-  <si>
     <t xml:space="preserve">a4585b</t>
   </si>
   <si>
@@ -200,9 +164,6 @@
     <t xml:space="preserve">928277</t>
   </si>
   <si>
-    <t xml:space="preserve">9e0998</t>
-  </si>
-  <si>
     <t xml:space="preserve">0d315c</t>
   </si>
   <si>
@@ -215,9 +176,6 @@
     <t xml:space="preserve">2d4c92</t>
   </si>
   <si>
-    <t xml:space="preserve">27afb4</t>
-  </si>
-  <si>
     <t xml:space="preserve">840043</t>
   </si>
   <si>
@@ -230,24 +188,15 @@
     <t xml:space="preserve">f2b659</t>
   </si>
   <si>
-    <t xml:space="preserve">eadc76</t>
-  </si>
-  <si>
     <t xml:space="preserve">cb8d85</t>
   </si>
   <si>
-    <t xml:space="preserve">7791e0</t>
-  </si>
-  <si>
     <t xml:space="preserve">15d750</t>
   </si>
   <si>
     <t xml:space="preserve">f8d6c3</t>
   </si>
   <si>
-    <t xml:space="preserve">0153e9</t>
-  </si>
-  <si>
     <t xml:space="preserve">c62127</t>
   </si>
   <si>
@@ -260,9 +209,6 @@
     <t xml:space="preserve">b37e78</t>
   </si>
   <si>
-    <t xml:space="preserve">24717d</t>
-  </si>
-  <si>
     <t xml:space="preserve">af1c1f</t>
   </si>
   <si>
@@ -275,9 +221,6 @@
     <t xml:space="preserve">c146f2</t>
   </si>
   <si>
-    <t xml:space="preserve">b7a231</t>
-  </si>
-  <si>
     <t xml:space="preserve">30ed05</t>
   </si>
   <si>
@@ -290,9 +233,6 @@
     <t xml:space="preserve">e83df3</t>
   </si>
   <si>
-    <t xml:space="preserve">e88337</t>
-  </si>
-  <si>
     <t xml:space="preserve">9e0ce3</t>
   </si>
   <si>
@@ -305,9 +245,6 @@
     <t xml:space="preserve">40202a</t>
   </si>
   <si>
-    <t xml:space="preserve">152abc</t>
-  </si>
-  <si>
     <t xml:space="preserve">aba6e2</t>
   </si>
   <si>
@@ -320,9 +257,6 @@
     <t xml:space="preserve">425730</t>
   </si>
   <si>
-    <t xml:space="preserve">2955ba</t>
-  </si>
-  <si>
     <t xml:space="preserve">00da2b</t>
   </si>
   <si>
@@ -335,9 +269,6 @@
     <t xml:space="preserve">5167ee</t>
   </si>
   <si>
-    <t xml:space="preserve">2c3a98</t>
-  </si>
-  <si>
     <t xml:space="preserve">e4b6b4</t>
   </si>
   <si>
@@ -350,9 +281,6 @@
     <t xml:space="preserve">99e8fa</t>
   </si>
   <si>
-    <t xml:space="preserve">f1b281</t>
-  </si>
-  <si>
     <t xml:space="preserve">df9f64</t>
   </si>
   <si>
@@ -365,9 +293,6 @@
     <t xml:space="preserve">a748cf</t>
   </si>
   <si>
-    <t xml:space="preserve">e74fd9</t>
-  </si>
-  <si>
     <t xml:space="preserve">21957a</t>
   </si>
   <si>
@@ -380,9 +305,6 @@
     <t xml:space="preserve">a0ab0d</t>
   </si>
   <si>
-    <t xml:space="preserve">8188cd</t>
-  </si>
-  <si>
     <t xml:space="preserve">008ea7</t>
   </si>
   <si>
@@ -395,24 +317,15 @@
     <t xml:space="preserve">dd9d20</t>
   </si>
   <si>
-    <t xml:space="preserve">4a89d8</t>
-  </si>
-  <si>
     <t xml:space="preserve">2adcc8</t>
   </si>
   <si>
     <t xml:space="preserve">571af3</t>
   </si>
   <si>
-    <t xml:space="preserve">8041e1</t>
-  </si>
-  <si>
     <t xml:space="preserve">b54b56</t>
   </si>
   <si>
-    <t xml:space="preserve">b8c40d</t>
-  </si>
-  <si>
     <t xml:space="preserve">37812a</t>
   </si>
   <si>
@@ -425,9 +338,6 @@
     <t xml:space="preserve">b9170e</t>
   </si>
   <si>
-    <t xml:space="preserve">1cf6fc</t>
-  </si>
-  <si>
     <t xml:space="preserve">ac0388</t>
   </si>
   <si>
@@ -440,9 +350,6 @@
     <t xml:space="preserve">7e1591</t>
   </si>
   <si>
-    <t xml:space="preserve">b2cd24</t>
-  </si>
-  <si>
     <t xml:space="preserve">5e95bb</t>
   </si>
   <si>
@@ -455,9 +362,6 @@
     <t xml:space="preserve">2b8fed</t>
   </si>
   <si>
-    <t xml:space="preserve">38893c</t>
-  </si>
-  <si>
     <t xml:space="preserve">c80572</t>
   </si>
   <si>
@@ -470,9 +374,6 @@
     <t xml:space="preserve">157310</t>
   </si>
   <si>
-    <t xml:space="preserve">e55ec4</t>
-  </si>
-  <si>
     <t xml:space="preserve">5154ca</t>
   </si>
   <si>
@@ -485,9 +386,6 @@
     <t xml:space="preserve">0b5ad0</t>
   </si>
   <si>
-    <t xml:space="preserve">4635f5</t>
-  </si>
-  <si>
     <t xml:space="preserve">8f5a90</t>
   </si>
   <si>
@@ -500,9 +398,6 @@
     <t xml:space="preserve">dd977e</t>
   </si>
   <si>
-    <t xml:space="preserve">b8bd29</t>
-  </si>
-  <si>
     <t xml:space="preserve">fc57cc</t>
   </si>
   <si>
@@ -515,9 +410,6 @@
     <t xml:space="preserve">d9fce7</t>
   </si>
   <si>
-    <t xml:space="preserve">8e6587</t>
-  </si>
-  <si>
     <t xml:space="preserve">26b551</t>
   </si>
   <si>
@@ -530,9 +422,6 @@
     <t xml:space="preserve">8f0055</t>
   </si>
   <si>
-    <t xml:space="preserve">c03424</t>
-  </si>
-  <si>
     <t xml:space="preserve">f61980</t>
   </si>
   <si>
@@ -545,9 +434,6 @@
     <t xml:space="preserve">439526</t>
   </si>
   <si>
-    <t xml:space="preserve">a32a1b</t>
-  </si>
-  <si>
     <t xml:space="preserve">eabb2a</t>
   </si>
   <si>
@@ -560,9 +446,6 @@
     <t xml:space="preserve">77a257</t>
   </si>
   <si>
-    <t xml:space="preserve">bec959</t>
-  </si>
-  <si>
     <t xml:space="preserve">15de43</t>
   </si>
   <si>
@@ -575,9 +458,6 @@
     <t xml:space="preserve">2aa439</t>
   </si>
   <si>
-    <t xml:space="preserve">6c6bc5</t>
-  </si>
-  <si>
     <t xml:space="preserve">0afd15</t>
   </si>
   <si>
@@ -590,9 +470,6 @@
     <t xml:space="preserve">3a4372</t>
   </si>
   <si>
-    <t xml:space="preserve">fc15ef</t>
-  </si>
-  <si>
     <t xml:space="preserve">c2f748</t>
   </si>
   <si>
@@ -605,9 +482,6 @@
     <t xml:space="preserve">db8ca7</t>
   </si>
   <si>
-    <t xml:space="preserve">04b083</t>
-  </si>
-  <si>
     <t xml:space="preserve">4e7571</t>
   </si>
   <si>
@@ -620,9 +494,6 @@
     <t xml:space="preserve">9df68c</t>
   </si>
   <si>
-    <t xml:space="preserve">332efa</t>
-  </si>
-  <si>
     <t xml:space="preserve">fb5b29</t>
   </si>
   <si>
@@ -635,9 +506,6 @@
     <t xml:space="preserve">6198a5</t>
   </si>
   <si>
-    <t xml:space="preserve">058f21</t>
-  </si>
-  <si>
     <t xml:space="preserve">9cd6d0</t>
   </si>
   <si>
@@ -650,9 +518,6 @@
     <t xml:space="preserve">2a16aa</t>
   </si>
   <si>
-    <t xml:space="preserve">151773</t>
-  </si>
-  <si>
     <t xml:space="preserve">789fa5</t>
   </si>
   <si>
@@ -665,9 +530,6 @@
     <t xml:space="preserve">0f70b1</t>
   </si>
   <si>
-    <t xml:space="preserve">0b2579</t>
-  </si>
-  <si>
     <t xml:space="preserve">cd7bff</t>
   </si>
   <si>
@@ -680,9 +542,6 @@
     <t xml:space="preserve">26028b</t>
   </si>
   <si>
-    <t xml:space="preserve">d59299</t>
-  </si>
-  <si>
     <t xml:space="preserve">0e4462</t>
   </si>
   <si>
@@ -695,9 +554,6 @@
     <t xml:space="preserve">fb2536</t>
   </si>
   <si>
-    <t xml:space="preserve">9c5424</t>
-  </si>
-  <si>
     <t xml:space="preserve">cb7ca3</t>
   </si>
   <si>
@@ -710,9 +566,6 @@
     <t xml:space="preserve">8a06eb</t>
   </si>
   <si>
-    <t xml:space="preserve">2fc2f1</t>
-  </si>
-  <si>
     <t xml:space="preserve">3f5fe1</t>
   </si>
   <si>
@@ -725,9 +578,6 @@
     <t xml:space="preserve">08c2f2</t>
   </si>
   <si>
-    <t xml:space="preserve">3b0741</t>
-  </si>
-  <si>
     <t xml:space="preserve">c38a20</t>
   </si>
   <si>
@@ -740,9 +590,6 @@
     <t xml:space="preserve">7a1964</t>
   </si>
   <si>
-    <t xml:space="preserve">62e038</t>
-  </si>
-  <si>
     <t xml:space="preserve">25f3d9</t>
   </si>
   <si>
@@ -755,9 +602,6 @@
     <t xml:space="preserve">d07e11</t>
   </si>
   <si>
-    <t xml:space="preserve">8f32e8</t>
-  </si>
-  <si>
     <t xml:space="preserve">3c3367</t>
   </si>
   <si>
@@ -770,9 +614,6 @@
     <t xml:space="preserve">128d10</t>
   </si>
   <si>
-    <t xml:space="preserve">2be2fa</t>
-  </si>
-  <si>
     <t xml:space="preserve">61fcce</t>
   </si>
   <si>
@@ -785,9 +626,6 @@
     <t xml:space="preserve">a93d55</t>
   </si>
   <si>
-    <t xml:space="preserve">c4e706</t>
-  </si>
-  <si>
     <t xml:space="preserve">2f29c3</t>
   </si>
   <si>
@@ -800,24 +638,15 @@
     <t xml:space="preserve">3efdc1</t>
   </si>
   <si>
-    <t xml:space="preserve">ab27c7</t>
-  </si>
-  <si>
     <t xml:space="preserve">ff9ddd</t>
   </si>
   <si>
     <t xml:space="preserve">9c8045</t>
   </si>
   <si>
-    <t xml:space="preserve">062638</t>
-  </si>
-  <si>
     <t xml:space="preserve">60813f</t>
   </si>
   <si>
-    <t xml:space="preserve">19db82</t>
-  </si>
-  <si>
     <t xml:space="preserve">1b806b</t>
   </si>
   <si>
@@ -830,9 +659,6 @@
     <t xml:space="preserve">9d70c3</t>
   </si>
   <si>
-    <t xml:space="preserve">2dea67</t>
-  </si>
-  <si>
     <t xml:space="preserve">d42571</t>
   </si>
   <si>
@@ -845,9 +671,6 @@
     <t xml:space="preserve">00612b</t>
   </si>
   <si>
-    <t xml:space="preserve">73647d</t>
-  </si>
-  <si>
     <t xml:space="preserve">3f7c0b</t>
   </si>
   <si>
@@ -860,9 +683,6 @@
     <t xml:space="preserve">ded352</t>
   </si>
   <si>
-    <t xml:space="preserve">c10e49</t>
-  </si>
-  <si>
     <t xml:space="preserve">6c1185</t>
   </si>
   <si>
@@ -875,9 +695,6 @@
     <t xml:space="preserve">ae4a36</t>
   </si>
   <si>
-    <t xml:space="preserve">3d9364</t>
-  </si>
-  <si>
     <t xml:space="preserve">f7118d</t>
   </si>
   <si>
@@ -890,9 +707,6 @@
     <t xml:space="preserve">8c4e8a</t>
   </si>
   <si>
-    <t xml:space="preserve">974bc1</t>
-  </si>
-  <si>
     <t xml:space="preserve">e36e1f</t>
   </si>
   <si>
@@ -905,9 +719,6 @@
     <t xml:space="preserve">1d1c7d</t>
   </si>
   <si>
-    <t xml:space="preserve">dce5cc</t>
-  </si>
-  <si>
     <t xml:space="preserve">4a215f</t>
   </si>
   <si>
@@ -920,9 +731,6 @@
     <t xml:space="preserve">7ff746</t>
   </si>
   <si>
-    <t xml:space="preserve">7fd086</t>
-  </si>
-  <si>
     <t xml:space="preserve">baa1e5</t>
   </si>
   <si>
@@ -935,24 +743,15 @@
     <t xml:space="preserve">2ce30f</t>
   </si>
   <si>
-    <t xml:space="preserve">5c796b</t>
-  </si>
-  <si>
     <t xml:space="preserve">5715b7</t>
   </si>
   <si>
-    <t xml:space="preserve">134e88</t>
-  </si>
-  <si>
     <t xml:space="preserve">215cee</t>
   </si>
   <si>
     <t xml:space="preserve">bc2924</t>
   </si>
   <si>
-    <t xml:space="preserve">88f8aa</t>
-  </si>
-  <si>
     <t xml:space="preserve">8a4b27</t>
   </si>
   <si>
@@ -965,9 +764,6 @@
     <t xml:space="preserve">c2a1ce</t>
   </si>
   <si>
-    <t xml:space="preserve">ba831c</t>
-  </si>
-  <si>
     <t xml:space="preserve">72fdfe</t>
   </si>
   <si>
@@ -980,9 +776,6 @@
     <t xml:space="preserve">aa3701</t>
   </si>
   <si>
-    <t xml:space="preserve">09f73e</t>
-  </si>
-  <si>
     <t xml:space="preserve">bc0b51</t>
   </si>
   <si>
@@ -995,9 +788,6 @@
     <t xml:space="preserve">26c588</t>
   </si>
   <si>
-    <t xml:space="preserve">da8bdb</t>
-  </si>
-  <si>
     <t xml:space="preserve">623061</t>
   </si>
   <si>
@@ -1010,9 +800,6 @@
     <t xml:space="preserve">5024af</t>
   </si>
   <si>
-    <t xml:space="preserve">9b2b8f</t>
-  </si>
-  <si>
     <t xml:space="preserve">0bdf6b</t>
   </si>
   <si>
@@ -1025,12 +812,6 @@
     <t xml:space="preserve">e09a19</t>
   </si>
   <si>
-    <t xml:space="preserve">b9a31a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">534e49</t>
-  </si>
-  <si>
     <t xml:space="preserve">e5e4e7</t>
   </si>
   <si>
@@ -1040,9 +821,6 @@
     <t xml:space="preserve">eff241</t>
   </si>
   <si>
-    <t xml:space="preserve">44163c</t>
-  </si>
-  <si>
     <t xml:space="preserve">42b86c</t>
   </si>
   <si>
@@ -1055,9 +833,6 @@
     <t xml:space="preserve">b345c5</t>
   </si>
   <si>
-    <t xml:space="preserve">bf302f</t>
-  </si>
-  <si>
     <t xml:space="preserve">1df3c0</t>
   </si>
   <si>
@@ -1070,9 +845,6 @@
     <t xml:space="preserve">882ab5</t>
   </si>
   <si>
-    <t xml:space="preserve">e83194</t>
-  </si>
-  <si>
     <t xml:space="preserve">050eca</t>
   </si>
   <si>
@@ -1085,9 +857,6 @@
     <t xml:space="preserve">a38790</t>
   </si>
   <si>
-    <t xml:space="preserve">bd9f32</t>
-  </si>
-  <si>
     <t xml:space="preserve">df052c</t>
   </si>
   <si>
@@ -1100,9 +869,6 @@
     <t xml:space="preserve">2d0f27</t>
   </si>
   <si>
-    <t xml:space="preserve">a64efd</t>
-  </si>
-  <si>
     <t xml:space="preserve">090d77</t>
   </si>
   <si>
@@ -1115,24 +881,15 @@
     <t xml:space="preserve">294457</t>
   </si>
   <si>
-    <t xml:space="preserve">b46a7a</t>
-  </si>
-  <si>
     <t xml:space="preserve">5cbd2f</t>
   </si>
   <si>
-    <t xml:space="preserve">92e129</t>
-  </si>
-  <si>
     <t xml:space="preserve">5c1d6e</t>
   </si>
   <si>
     <t xml:space="preserve">5c9744</t>
   </si>
   <si>
-    <t xml:space="preserve">4221c9</t>
-  </si>
-  <si>
     <t xml:space="preserve">05d68d</t>
   </si>
   <si>
@@ -1145,9 +902,6 @@
     <t xml:space="preserve">da76ad</t>
   </si>
   <si>
-    <t xml:space="preserve">aa7ad1</t>
-  </si>
-  <si>
     <t xml:space="preserve">63bc2e</t>
   </si>
   <si>
@@ -1160,9 +914,6 @@
     <t xml:space="preserve">a3b42e</t>
   </si>
   <si>
-    <t xml:space="preserve">d7a110</t>
-  </si>
-  <si>
     <t xml:space="preserve">c230ae</t>
   </si>
   <si>
@@ -1175,9 +926,6 @@
     <t xml:space="preserve">eb7d13</t>
   </si>
   <si>
-    <t xml:space="preserve">50d699</t>
-  </si>
-  <si>
     <t xml:space="preserve">506dfc</t>
   </si>
   <si>
@@ -1190,9 +938,6 @@
     <t xml:space="preserve">a0bc11</t>
   </si>
   <si>
-    <t xml:space="preserve">725b35</t>
-  </si>
-  <si>
     <t xml:space="preserve">176b73</t>
   </si>
   <si>
@@ -1205,9 +950,6 @@
     <t xml:space="preserve">f52668</t>
   </si>
   <si>
-    <t xml:space="preserve">d29e8c</t>
-  </si>
-  <si>
     <t xml:space="preserve">82494c</t>
   </si>
   <si>
@@ -1220,9 +962,6 @@
     <t xml:space="preserve">098ddf</t>
   </si>
   <si>
-    <t xml:space="preserve">88ed04</t>
-  </si>
-  <si>
     <t xml:space="preserve">7864f6</t>
   </si>
   <si>
@@ -1235,9 +974,6 @@
     <t xml:space="preserve">a6ed82</t>
   </si>
   <si>
-    <t xml:space="preserve">d5ef6e</t>
-  </si>
-  <si>
     <t xml:space="preserve">269ddd</t>
   </si>
   <si>
@@ -1250,9 +986,6 @@
     <t xml:space="preserve">331030</t>
   </si>
   <si>
-    <t xml:space="preserve">5993d0</t>
-  </si>
-  <si>
     <t xml:space="preserve">303b01</t>
   </si>
   <si>
@@ -1265,9 +998,6 @@
     <t xml:space="preserve">734753</t>
   </si>
   <si>
-    <t xml:space="preserve">c15f36</t>
-  </si>
-  <si>
     <t xml:space="preserve">013ff1</t>
   </si>
   <si>
@@ -1280,9 +1010,6 @@
     <t xml:space="preserve">3334d0</t>
   </si>
   <si>
-    <t xml:space="preserve">25bfe6</t>
-  </si>
-  <si>
     <t xml:space="preserve">47eb8b</t>
   </si>
   <si>
@@ -1295,9 +1022,6 @@
     <t xml:space="preserve">545b3b</t>
   </si>
   <si>
-    <t xml:space="preserve">a03147</t>
-  </si>
-  <si>
     <t xml:space="preserve">bd14cc</t>
   </si>
   <si>
@@ -1310,9 +1034,6 @@
     <t xml:space="preserve">82b353</t>
   </si>
   <si>
-    <t xml:space="preserve">b12a74</t>
-  </si>
-  <si>
     <t xml:space="preserve">0fbbeb</t>
   </si>
   <si>
@@ -1325,9 +1046,6 @@
     <t xml:space="preserve">80b1c9</t>
   </si>
   <si>
-    <t xml:space="preserve">51c203</t>
-  </si>
-  <si>
     <t xml:space="preserve">808669</t>
   </si>
   <si>
@@ -1340,9 +1058,6 @@
     <t xml:space="preserve">d3cff4</t>
   </si>
   <si>
-    <t xml:space="preserve">9e74c4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ed1033</t>
   </si>
   <si>
@@ -1355,9 +1070,6 @@
     <t xml:space="preserve">cfbd0a</t>
   </si>
   <si>
-    <t xml:space="preserve">788d03</t>
-  </si>
-  <si>
     <t xml:space="preserve">4b0f10</t>
   </si>
   <si>
@@ -1370,24 +1082,15 @@
     <t xml:space="preserve">5fa181</t>
   </si>
   <si>
-    <t xml:space="preserve">ad9518</t>
-  </si>
-  <si>
     <t xml:space="preserve">a0de7d</t>
   </si>
   <si>
     <t xml:space="preserve">0be051</t>
   </si>
   <si>
-    <t xml:space="preserve">192e36</t>
-  </si>
-  <si>
     <t xml:space="preserve">dee922</t>
   </si>
   <si>
-    <t xml:space="preserve">3e714e</t>
-  </si>
-  <si>
     <t xml:space="preserve">823533</t>
   </si>
   <si>
@@ -1400,9 +1103,6 @@
     <t xml:space="preserve">4b158a</t>
   </si>
   <si>
-    <t xml:space="preserve">728730</t>
-  </si>
-  <si>
     <t xml:space="preserve">18f408</t>
   </si>
   <si>
@@ -1415,9 +1115,6 @@
     <t xml:space="preserve">db97c6</t>
   </si>
   <si>
-    <t xml:space="preserve">cad2c1</t>
-  </si>
-  <si>
     <t xml:space="preserve">d0523a</t>
   </si>
   <si>
@@ -1430,9 +1127,6 @@
     <t xml:space="preserve">ee65e4</t>
   </si>
   <si>
-    <t xml:space="preserve">8e6dc1</t>
-  </si>
-  <si>
     <t xml:space="preserve">895618</t>
   </si>
   <si>
@@ -1445,9 +1139,6 @@
     <t xml:space="preserve">05c075</t>
   </si>
   <si>
-    <t xml:space="preserve">90360f</t>
-  </si>
-  <si>
     <t xml:space="preserve">c41648</t>
   </si>
   <si>
@@ -1460,9 +1151,6 @@
     <t xml:space="preserve">5a7920</t>
   </si>
   <si>
-    <t xml:space="preserve">01b1fd</t>
-  </si>
-  <si>
     <t xml:space="preserve">62b067</t>
   </si>
   <si>
@@ -1475,9 +1163,6 @@
     <t xml:space="preserve">8b100a</t>
   </si>
   <si>
-    <t xml:space="preserve">b82030</t>
-  </si>
-  <si>
     <t xml:space="preserve">8e455c</t>
   </si>
   <si>
@@ -1490,9 +1175,6 @@
     <t xml:space="preserve">99358d</t>
   </si>
   <si>
-    <t xml:space="preserve">92ab68</t>
-  </si>
-  <si>
     <t xml:space="preserve">f648f5</t>
   </si>
   <si>
@@ -1505,12 +1187,6 @@
     <t xml:space="preserve">16dcd2</t>
   </si>
   <si>
-    <t xml:space="preserve">355a4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">057487</t>
-  </si>
-  <si>
     <t xml:space="preserve">5400a2</t>
   </si>
   <si>
@@ -1520,9 +1196,6 @@
     <t xml:space="preserve">10cae2</t>
   </si>
   <si>
-    <t xml:space="preserve">ab6e76</t>
-  </si>
-  <si>
     <t xml:space="preserve">c8a9f2</t>
   </si>
   <si>
@@ -1535,9 +1208,6 @@
     <t xml:space="preserve">3fa147</t>
   </si>
   <si>
-    <t xml:space="preserve">44de7a</t>
-  </si>
-  <si>
     <t xml:space="preserve">b18cb7</t>
   </si>
   <si>
@@ -1550,9 +1220,6 @@
     <t xml:space="preserve">2f8828</t>
   </si>
   <si>
-    <t xml:space="preserve">d05a15</t>
-  </si>
-  <si>
     <t xml:space="preserve">b013ab</t>
   </si>
   <si>
@@ -1565,9 +1232,6 @@
     <t xml:space="preserve">4cff96</t>
   </si>
   <si>
-    <t xml:space="preserve">2bf2f3</t>
-  </si>
-  <si>
     <t xml:space="preserve">119a92</t>
   </si>
   <si>
@@ -1580,9 +1244,6 @@
     <t xml:space="preserve">5f8f6c</t>
   </si>
   <si>
-    <t xml:space="preserve">1bb136</t>
-  </si>
-  <si>
     <t xml:space="preserve">da6eda</t>
   </si>
   <si>
@@ -1595,9 +1256,6 @@
     <t xml:space="preserve">4fa236</t>
   </si>
   <si>
-    <t xml:space="preserve">d43117</t>
-  </si>
-  <si>
     <t xml:space="preserve">8e5bba</t>
   </si>
   <si>
@@ -1610,9 +1268,6 @@
     <t xml:space="preserve">034b46</t>
   </si>
   <si>
-    <t xml:space="preserve">b38ca8</t>
-  </si>
-  <si>
     <t xml:space="preserve">e27816</t>
   </si>
   <si>
@@ -1625,9 +1280,6 @@
     <t xml:space="preserve">3c498e</t>
   </si>
   <si>
-    <t xml:space="preserve">baa64c</t>
-  </si>
-  <si>
     <t xml:space="preserve">75a20a</t>
   </si>
   <si>
@@ -1640,9 +1292,6 @@
     <t xml:space="preserve">55d542</t>
   </si>
   <si>
-    <t xml:space="preserve">3d26f2</t>
-  </si>
-  <si>
     <t xml:space="preserve">f60a47</t>
   </si>
   <si>
@@ -1655,9 +1304,6 @@
     <t xml:space="preserve">571076</t>
   </si>
   <si>
-    <t xml:space="preserve">7d25a6</t>
-  </si>
-  <si>
     <t xml:space="preserve">b3f614</t>
   </si>
   <si>
@@ -1670,9 +1316,6 @@
     <t xml:space="preserve">08f742</t>
   </si>
   <si>
-    <t xml:space="preserve">dc7696</t>
-  </si>
-  <si>
     <t xml:space="preserve">1eea27</t>
   </si>
   <si>
@@ -1685,9 +1328,6 @@
     <t xml:space="preserve">7bdda7</t>
   </si>
   <si>
-    <t xml:space="preserve">225256</t>
-  </si>
-  <si>
     <t xml:space="preserve">c0f295</t>
   </si>
   <si>
@@ -1700,9 +1340,6 @@
     <t xml:space="preserve">98992e</t>
   </si>
   <si>
-    <t xml:space="preserve">9a9a84</t>
-  </si>
-  <si>
     <t xml:space="preserve">b52c9a</t>
   </si>
   <si>
@@ -1715,9 +1352,6 @@
     <t xml:space="preserve">53f4ae</t>
   </si>
   <si>
-    <t xml:space="preserve">8a4580</t>
-  </si>
-  <si>
     <t xml:space="preserve">672ab9</t>
   </si>
   <si>
@@ -1730,9 +1364,6 @@
     <t xml:space="preserve">99e1a5</t>
   </si>
   <si>
-    <t xml:space="preserve">b1b620</t>
-  </si>
-  <si>
     <t xml:space="preserve">7ba3ff</t>
   </si>
   <si>
@@ -1745,9 +1376,6 @@
     <t xml:space="preserve">a356d4</t>
   </si>
   <si>
-    <t xml:space="preserve">cccca6</t>
-  </si>
-  <si>
     <t xml:space="preserve">10cb7a</t>
   </si>
   <si>
@@ -1760,9 +1388,6 @@
     <t xml:space="preserve">47d0b3</t>
   </si>
   <si>
-    <t xml:space="preserve">0197b6</t>
-  </si>
-  <si>
     <t xml:space="preserve">c55720</t>
   </si>
   <si>
@@ -1775,9 +1400,6 @@
     <t xml:space="preserve">82b823</t>
   </si>
   <si>
-    <t xml:space="preserve">639e4b</t>
-  </si>
-  <si>
     <t xml:space="preserve">ecd845</t>
   </si>
   <si>
@@ -1790,9 +1412,6 @@
     <t xml:space="preserve">bbda1c</t>
   </si>
   <si>
-    <t xml:space="preserve">e06c58</t>
-  </si>
-  <si>
     <t xml:space="preserve">e8bcf6</t>
   </si>
   <si>
@@ -1805,9 +1424,6 @@
     <t xml:space="preserve">d5f3c0</t>
   </si>
   <si>
-    <t xml:space="preserve">4651d4</t>
-  </si>
-  <si>
     <t xml:space="preserve">0f5c6e</t>
   </si>
   <si>
@@ -1820,9 +1436,6 @@
     <t xml:space="preserve">983f4f</t>
   </si>
   <si>
-    <t xml:space="preserve">7bc2e6</t>
-  </si>
-  <si>
     <t xml:space="preserve">d4df19</t>
   </si>
   <si>
@@ -1835,9 +1448,6 @@
     <t xml:space="preserve">597f17</t>
   </si>
   <si>
-    <t xml:space="preserve">2746fe</t>
-  </si>
-  <si>
     <t xml:space="preserve">42022a</t>
   </si>
   <si>
@@ -1850,9 +1460,6 @@
     <t xml:space="preserve">c8ee00</t>
   </si>
   <si>
-    <t xml:space="preserve">217b74</t>
-  </si>
-  <si>
     <t xml:space="preserve">266760</t>
   </si>
   <si>
@@ -1865,9 +1472,6 @@
     <t xml:space="preserve">ef1f68</t>
   </si>
   <si>
-    <t xml:space="preserve">853362</t>
-  </si>
-  <si>
     <t xml:space="preserve">0d8a0a</t>
   </si>
   <si>
@@ -1940,9 +1544,6 @@
     <t xml:space="preserve">1cab44</t>
   </si>
   <si>
-    <t xml:space="preserve">2ebf95</t>
-  </si>
-  <si>
     <t xml:space="preserve">fe2e5a</t>
   </si>
   <si>
@@ -1955,9 +1556,6 @@
     <t xml:space="preserve">742243</t>
   </si>
   <si>
-    <t xml:space="preserve">b6aa9a</t>
-  </si>
-  <si>
     <t xml:space="preserve">655168</t>
   </si>
   <si>
@@ -1970,9 +1568,6 @@
     <t xml:space="preserve">017b46</t>
   </si>
   <si>
-    <t xml:space="preserve">db38e1</t>
-  </si>
-  <si>
     <t xml:space="preserve">47dfcd</t>
   </si>
   <si>
@@ -1985,9 +1580,6 @@
     <t xml:space="preserve">767320</t>
   </si>
   <si>
-    <t xml:space="preserve">b7641e</t>
-  </si>
-  <si>
     <t xml:space="preserve">aac49d</t>
   </si>
   <si>
@@ -1998,9 +1590,6 @@
   </si>
   <si>
     <t xml:space="preserve">0e6823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7aee5b</t>
   </si>
   <si>
     <t xml:space="preserve">9d46f7</t>
@@ -2357,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -2365,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -2373,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -2381,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -2389,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -2397,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -2405,7 +1994,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -2413,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2421,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -2429,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2437,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2445,7 +2034,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2453,7 +2042,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -2469,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -2477,7 +2066,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2485,7 +2074,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2493,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2501,7 +2090,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2509,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -2517,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -2525,7 +2114,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -2549,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -2557,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -2573,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -2581,7 +2170,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -2589,7 +2178,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -2597,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -2605,7 +2194,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -2613,7 +2202,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2621,7 +2210,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -2629,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -2645,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -2653,7 +2242,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -2661,7 +2250,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -2669,7 +2258,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -2677,7 +2266,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2685,7 +2274,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -2693,7 +2282,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -2725,7 +2314,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -2733,7 +2322,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -2741,7 +2330,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2749,7 +2338,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -2757,7 +2346,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -2765,7 +2354,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -2773,7 +2362,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2781,7 +2370,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -2789,7 +2378,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -2797,7 +2386,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -2813,7 +2402,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -2829,7 +2418,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -2837,7 +2426,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -2845,7 +2434,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -2853,7 +2442,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -2861,7 +2450,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -2869,7 +2458,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -2877,7 +2466,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
@@ -2885,7 +2474,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
@@ -2893,7 +2482,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -2901,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -2909,7 +2498,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -2917,7 +2506,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73">
@@ -2925,7 +2514,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -2941,7 +2530,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -2957,7 +2546,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -2973,7 +2562,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2981,7 +2570,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -2989,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -2997,7 +2586,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -3005,7 +2594,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -3013,7 +2602,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -3021,7 +2610,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86">
@@ -3029,7 +2618,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -3037,7 +2626,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -3045,7 +2634,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -3053,7 +2642,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -3061,7 +2650,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -3069,7 +2658,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -3085,7 +2674,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -3093,7 +2682,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -3109,7 +2698,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -3117,7 +2706,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -3125,7 +2714,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -3141,7 +2730,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
@@ -3149,7 +2738,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
@@ -3157,7 +2746,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
@@ -3165,7 +2754,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
@@ -3173,7 +2762,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -3181,7 +2770,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -3189,7 +2778,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
@@ -3197,7 +2786,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
@@ -3205,7 +2794,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -3213,7 +2802,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -3221,7 +2810,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -3229,7 +2818,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -3237,7 +2826,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -3245,7 +2834,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -3253,7 +2842,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -3261,7 +2850,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
@@ -3277,7 +2866,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -3285,7 +2874,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -3293,7 +2882,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
@@ -3301,7 +2890,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
@@ -3309,7 +2898,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
@@ -3317,7 +2906,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
@@ -3325,7 +2914,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
@@ -3333,7 +2922,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
@@ -3341,7 +2930,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
@@ -3349,7 +2938,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
@@ -3365,7 +2954,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
@@ -3373,7 +2962,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
@@ -3381,7 +2970,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
@@ -3389,7 +2978,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +2986,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
@@ -3405,7 +2994,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
@@ -3413,7 +3002,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -3421,7 +3010,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -3429,7 +3018,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
@@ -3437,7 +3026,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
@@ -3445,7 +3034,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
@@ -3477,7 +3066,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -3485,7 +3074,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
@@ -3493,7 +3082,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
@@ -3501,7 +3090,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -3509,7 +3098,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
@@ -3517,7 +3106,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148">
@@ -3525,7 +3114,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
@@ -3541,7 +3130,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
@@ -3549,7 +3138,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152">
@@ -3557,7 +3146,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153">
@@ -3565,7 +3154,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
@@ -3573,7 +3162,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
@@ -3581,7 +3170,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
@@ -3589,7 +3178,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
@@ -3597,7 +3186,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -3605,7 +3194,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
@@ -3613,7 +3202,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -3621,7 +3210,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
@@ -3629,7 +3218,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
@@ -3637,7 +3226,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -3645,7 +3234,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -3653,7 +3242,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165">
@@ -3661,7 +3250,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
@@ -3669,7 +3258,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
@@ -3677,7 +3266,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
@@ -3685,7 +3274,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
@@ -3693,7 +3282,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
@@ -3701,7 +3290,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -3717,7 +3306,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
@@ -3725,7 +3314,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174">
@@ -3733,7 +3322,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175">
@@ -3749,7 +3338,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177">
@@ -3757,7 +3346,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178">
@@ -3765,7 +3354,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179">
@@ -3781,7 +3370,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181">
@@ -3789,7 +3378,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
@@ -3797,7 +3386,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
@@ -3805,7 +3394,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
@@ -3813,7 +3402,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185">
@@ -3821,7 +3410,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186">
@@ -3829,7 +3418,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187">
@@ -3853,7 +3442,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190">
@@ -3861,7 +3450,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
@@ -3869,7 +3458,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
@@ -3877,7 +3466,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
@@ -3885,7 +3474,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194">
@@ -3893,7 +3482,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -3901,7 +3490,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
@@ -3917,7 +3506,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198">
@@ -3941,7 +3530,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
@@ -3949,7 +3538,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202">
@@ -3957,7 +3546,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
@@ -3965,7 +3554,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -3973,7 +3562,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205">
@@ -3981,7 +3570,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -3997,7 +3586,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208">
@@ -4005,7 +3594,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209">
@@ -4013,7 +3602,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210">
@@ -4021,7 +3610,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211">
@@ -4029,7 +3618,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
@@ -4037,7 +3626,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213">
@@ -4045,7 +3634,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214">
@@ -4053,7 +3642,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215">
@@ -4061,7 +3650,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
@@ -4077,7 +3666,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -4085,7 +3674,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
@@ -4101,7 +3690,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221">
@@ -4125,7 +3714,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224">
@@ -4133,7 +3722,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
@@ -4141,7 +3730,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
@@ -4157,7 +3746,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -4165,7 +3754,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
@@ -4173,7 +3762,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230">
@@ -4181,7 +3770,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
@@ -4197,7 +3786,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -4205,7 +3794,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234">
@@ -4213,7 +3802,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235">
@@ -4221,7 +3810,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -4237,7 +3826,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238">
@@ -4245,7 +3834,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239">
@@ -4253,7 +3842,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240">
@@ -4261,7 +3850,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -4269,7 +3858,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242">
@@ -4285,7 +3874,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244">
@@ -4293,7 +3882,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
@@ -4301,7 +3890,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246">
@@ -4309,7 +3898,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247">
@@ -4317,7 +3906,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248">
@@ -4325,7 +3914,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249">
@@ -4349,7 +3938,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
@@ -4357,7 +3946,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
@@ -4373,7 +3962,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255">
@@ -4381,7 +3970,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256">
@@ -4389,7 +3978,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257">
@@ -4397,7 +3986,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
@@ -4413,7 +4002,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
@@ -4421,7 +4010,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261">
@@ -4429,7 +4018,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262">
@@ -4437,7 +4026,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263">
@@ -4445,7 +4034,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264">
@@ -4469,7 +4058,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267">
@@ -4477,7 +4066,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268">
@@ -4485,7 +4074,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269">
@@ -4493,7 +4082,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
@@ -4501,7 +4090,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271">
@@ -4517,7 +4106,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273">
@@ -4533,7 +4122,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="275">
@@ -4541,7 +4130,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276">
@@ -4549,7 +4138,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277">
@@ -4557,7 +4146,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278">
@@ -4565,7 +4154,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279">
@@ -4573,7 +4162,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280">
@@ -4581,7 +4170,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281">
@@ -4589,7 +4178,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282">
@@ -4597,7 +4186,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
@@ -4613,7 +4202,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285">
@@ -4621,7 +4210,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -4629,7 +4218,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287">
@@ -4645,7 +4234,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289">
@@ -4661,7 +4250,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291">
@@ -4669,7 +4258,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292">
@@ -4677,7 +4266,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293">
@@ -4685,7 +4274,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294">
@@ -4693,7 +4282,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295">
@@ -4701,7 +4290,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296">
@@ -4709,7 +4298,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297">
@@ -4725,7 +4314,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="299">
@@ -4733,7 +4322,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300">
@@ -4741,7 +4330,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="301">
@@ -4749,7 +4338,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="302">
@@ -4757,7 +4346,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303">
@@ -4765,7 +4354,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
@@ -4773,7 +4362,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305">
@@ -4789,7 +4378,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="307">
@@ -4797,7 +4386,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="308">
@@ -4805,7 +4394,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309">
@@ -4813,7 +4402,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310">
@@ -4821,7 +4410,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311">
@@ -4829,7 +4418,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312">
@@ -4837,7 +4426,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="313">
@@ -4853,7 +4442,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315">
@@ -4861,7 +4450,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316">
@@ -4869,7 +4458,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317">
@@ -4877,7 +4466,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318">
@@ -4885,7 +4474,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319">
@@ -4893,7 +4482,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320">
@@ -4901,7 +4490,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321">
@@ -4909,7 +4498,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322">
@@ -4917,7 +4506,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323">
@@ -4925,7 +4514,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324">
@@ -4933,7 +4522,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325">
@@ -4941,7 +4530,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326">
@@ -4949,7 +4538,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327">
@@ -4957,7 +4546,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -4965,7 +4554,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="329">
@@ -4973,7 +4562,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330">
@@ -4981,7 +4570,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="331">
@@ -4989,7 +4578,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332">
@@ -4997,7 +4586,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333">
@@ -5005,7 +4594,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334">
@@ -5013,7 +4602,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="335">
@@ -5021,7 +4610,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="336">
@@ -5029,7 +4618,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337">
@@ -5037,7 +4626,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338">
@@ -5045,7 +4634,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339">
@@ -5053,7 +4642,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340">
@@ -5061,7 +4650,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341">
@@ -5069,7 +4658,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342">
@@ -5077,7 +4666,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343">
@@ -5085,7 +4674,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344">
@@ -5093,7 +4682,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="345">
@@ -5101,7 +4690,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
@@ -5109,7 +4698,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347">
@@ -5117,7 +4706,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348">
@@ -5125,7 +4714,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349">
@@ -5133,7 +4722,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
@@ -5141,7 +4730,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351">
@@ -5149,7 +4738,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352">
@@ -5165,7 +4754,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354">
@@ -5181,7 +4770,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356">
@@ -5189,7 +4778,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="357">
@@ -5205,7 +4794,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359">
@@ -5213,7 +4802,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360">
@@ -5221,7 +4810,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361">
@@ -5237,7 +4826,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363">
@@ -5245,7 +4834,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="364">
@@ -5253,7 +4842,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365">
@@ -5261,7 +4850,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="366">
@@ -5285,7 +4874,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369">
@@ -5293,7 +4882,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="370">
@@ -5301,7 +4890,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="371">
@@ -5309,7 +4898,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="372">
@@ -5317,7 +4906,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="373">
@@ -5325,7 +4914,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374">
@@ -5333,7 +4922,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="375">
@@ -5341,7 +4930,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376">
@@ -5349,7 +4938,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377">
@@ -5365,7 +4954,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379">
@@ -5373,7 +4962,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380">
@@ -5381,7 +4970,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381">
@@ -5405,7 +4994,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384">
@@ -5413,7 +5002,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385">
@@ -5421,7 +5010,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="386">
@@ -5429,7 +5018,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387">
@@ -5437,7 +5026,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388">
@@ -5445,7 +5034,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="389">
@@ -5453,7 +5042,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="390">
@@ -5461,7 +5050,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391">
@@ -5469,7 +5058,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392">
@@ -5477,7 +5066,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393">
@@ -5493,7 +5082,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="395">
@@ -5501,7 +5090,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396">
@@ -5509,7 +5098,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="397">
@@ -5517,7 +5106,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="398">
@@ -5525,7 +5114,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399">
@@ -5533,7 +5122,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400">
@@ -5541,7 +5130,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="401">
@@ -5549,7 +5138,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402">
@@ -5557,7 +5146,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="403">
@@ -5565,7 +5154,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404">
@@ -5573,7 +5162,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405">
@@ -5581,7 +5170,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="406">
@@ -5589,7 +5178,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="407">
@@ -5605,7 +5194,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="409">
@@ -5613,7 +5202,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="410">
@@ -5629,7 +5218,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="412">
@@ -5637,7 +5226,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413">
@@ -5645,7 +5234,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="414">
@@ -5661,7 +5250,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="416">
@@ -5669,7 +5258,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417">
@@ -5677,7 +5266,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418">
@@ -5685,7 +5274,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="419">
@@ -5693,7 +5282,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420">
@@ -5709,7 +5298,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422">
@@ -5717,7 +5306,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423">
@@ -5733,7 +5322,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="425">
@@ -5741,7 +5330,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426">
@@ -5749,7 +5338,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427">
@@ -5757,7 +5346,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428">
@@ -5773,7 +5362,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="430">
@@ -5781,7 +5370,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="431">
@@ -5789,7 +5378,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="432">
@@ -5797,7 +5386,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433">
@@ -5805,7 +5394,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="434">
@@ -5813,7 +5402,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="435">
@@ -5821,7 +5410,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="436">
@@ -5829,7 +5418,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="437">
@@ -5837,7 +5426,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="438">
@@ -5845,7 +5434,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="439">
@@ -5853,7 +5442,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="440">
@@ -5861,7 +5450,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441">
@@ -5869,7 +5458,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="442">
@@ -5885,7 +5474,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="444">
@@ -5893,7 +5482,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="445">
@@ -5909,7 +5498,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="447">
@@ -5917,7 +5506,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="448">
@@ -5925,7 +5514,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="449">
@@ -5933,7 +5522,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="450">
@@ -5941,7 +5530,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451">
@@ -5949,7 +5538,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="452">
@@ -5957,7 +5546,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="453">
@@ -5965,7 +5554,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="454">
@@ -5973,7 +5562,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="455">
@@ -5997,7 +5586,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458">
@@ -6005,7 +5594,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="459">
@@ -6021,7 +5610,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="461">
@@ -6029,7 +5618,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462">
@@ -6037,7 +5626,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="463">
@@ -6045,7 +5634,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="464">
@@ -6053,7 +5642,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="465">
@@ -6061,7 +5650,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="466">
@@ -6069,7 +5658,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="467">
@@ -6077,7 +5666,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="468">
@@ -6085,7 +5674,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="469">
@@ -6093,7 +5682,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470">
@@ -6101,7 +5690,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="471">
@@ -6109,7 +5698,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472">
@@ -6125,7 +5714,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="474">
@@ -6133,7 +5722,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="475">
@@ -6141,7 +5730,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="476">
@@ -6157,7 +5746,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478">
@@ -6165,7 +5754,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479">
@@ -6173,7 +5762,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="480">
@@ -6181,7 +5770,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="481">
@@ -6189,7 +5778,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="482">
@@ -6197,7 +5786,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="483">
@@ -6205,7 +5794,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="484">
@@ -6213,7 +5802,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="485">
@@ -6229,7 +5818,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="487">
@@ -6237,7 +5826,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="488">
@@ -6245,7 +5834,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="489">
@@ -6253,7 +5842,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="490">
@@ -6261,7 +5850,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="491">
@@ -6277,7 +5866,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="493">
@@ -6285,7 +5874,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="494">
@@ -6293,7 +5882,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="495">
@@ -6309,7 +5898,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497">
@@ -6317,7 +5906,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="498">
@@ -6357,7 +5946,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="503">
@@ -6365,7 +5954,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="504">
@@ -6373,7 +5962,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="505">
@@ -6381,7 +5970,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="506">
@@ -6397,7 +5986,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="508">
@@ -6405,7 +5994,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="509">
@@ -6413,7 +6002,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="510">
@@ -6429,7 +6018,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="512">
@@ -6437,7 +6026,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="513">
@@ -6445,7 +6034,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="514">
@@ -6453,7 +6042,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="515">
@@ -6461,7 +6050,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="516">
@@ -6469,7 +6058,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="517">
@@ -6477,7 +6066,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="518">
@@ -6493,7 +6082,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="520">
@@ -6501,7 +6090,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521">
@@ -6509,7 +6098,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="522">
@@ -6517,7 +6106,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="523">
@@ -6533,7 +6122,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="525">
@@ -6541,7 +6130,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="526">
@@ -6565,7 +6154,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="529">
@@ -6573,1102 +6162,6 @@
         <v>529</v>
       </c>
       <c r="B529" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="s">
-        <v>530</v>
-      </c>
-      <c r="B530" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="s">
-        <v>531</v>
-      </c>
-      <c r="B531" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="s">
-        <v>532</v>
-      </c>
-      <c r="B532" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="s">
-        <v>533</v>
-      </c>
-      <c r="B533" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="s">
-        <v>534</v>
-      </c>
-      <c r="B534" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="s">
-        <v>535</v>
-      </c>
-      <c r="B535" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="s">
-        <v>536</v>
-      </c>
-      <c r="B536" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="s">
-        <v>537</v>
-      </c>
-      <c r="B537" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="s">
-        <v>538</v>
-      </c>
-      <c r="B538" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="s">
-        <v>539</v>
-      </c>
-      <c r="B539" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="s">
-        <v>540</v>
-      </c>
-      <c r="B540" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="s">
-        <v>541</v>
-      </c>
-      <c r="B541" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="s">
-        <v>542</v>
-      </c>
-      <c r="B542" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="s">
-        <v>543</v>
-      </c>
-      <c r="B543" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="s">
-        <v>544</v>
-      </c>
-      <c r="B544" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="s">
-        <v>545</v>
-      </c>
-      <c r="B545" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="s">
-        <v>546</v>
-      </c>
-      <c r="B546" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="s">
-        <v>547</v>
-      </c>
-      <c r="B547" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="s">
-        <v>548</v>
-      </c>
-      <c r="B548" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="s">
-        <v>549</v>
-      </c>
-      <c r="B549" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="s">
-        <v>550</v>
-      </c>
-      <c r="B550" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="s">
-        <v>551</v>
-      </c>
-      <c r="B551" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="s">
-        <v>552</v>
-      </c>
-      <c r="B552" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="s">
-        <v>553</v>
-      </c>
-      <c r="B553" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="s">
-        <v>554</v>
-      </c>
-      <c r="B554" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="s">
-        <v>555</v>
-      </c>
-      <c r="B555" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="s">
-        <v>556</v>
-      </c>
-      <c r="B556" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="s">
-        <v>557</v>
-      </c>
-      <c r="B557" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="s">
-        <v>558</v>
-      </c>
-      <c r="B558" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="s">
-        <v>559</v>
-      </c>
-      <c r="B559" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="s">
-        <v>560</v>
-      </c>
-      <c r="B560" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="s">
-        <v>561</v>
-      </c>
-      <c r="B561" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="s">
-        <v>562</v>
-      </c>
-      <c r="B562" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="s">
-        <v>563</v>
-      </c>
-      <c r="B563" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="s">
-        <v>564</v>
-      </c>
-      <c r="B564" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="s">
-        <v>565</v>
-      </c>
-      <c r="B565" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="s">
-        <v>566</v>
-      </c>
-      <c r="B566" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="s">
-        <v>567</v>
-      </c>
-      <c r="B567" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="s">
-        <v>568</v>
-      </c>
-      <c r="B568" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="s">
-        <v>569</v>
-      </c>
-      <c r="B569" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="s">
-        <v>570</v>
-      </c>
-      <c r="B570" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="s">
-        <v>571</v>
-      </c>
-      <c r="B571" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="s">
-        <v>572</v>
-      </c>
-      <c r="B572" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="s">
-        <v>573</v>
-      </c>
-      <c r="B573" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="s">
-        <v>574</v>
-      </c>
-      <c r="B574" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="s">
-        <v>575</v>
-      </c>
-      <c r="B575" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="s">
-        <v>576</v>
-      </c>
-      <c r="B576" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="s">
-        <v>577</v>
-      </c>
-      <c r="B577" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="s">
-        <v>578</v>
-      </c>
-      <c r="B578" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="s">
-        <v>579</v>
-      </c>
-      <c r="B579" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="s">
-        <v>580</v>
-      </c>
-      <c r="B580" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="s">
-        <v>581</v>
-      </c>
-      <c r="B581" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="s">
-        <v>582</v>
-      </c>
-      <c r="B582" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="s">
-        <v>583</v>
-      </c>
-      <c r="B583" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="s">
-        <v>584</v>
-      </c>
-      <c r="B584" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="s">
-        <v>585</v>
-      </c>
-      <c r="B585" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="s">
-        <v>586</v>
-      </c>
-      <c r="B586" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="s">
-        <v>587</v>
-      </c>
-      <c r="B587" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="s">
-        <v>588</v>
-      </c>
-      <c r="B588" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="s">
-        <v>589</v>
-      </c>
-      <c r="B589" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="s">
-        <v>590</v>
-      </c>
-      <c r="B590" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="s">
-        <v>591</v>
-      </c>
-      <c r="B591" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="s">
-        <v>592</v>
-      </c>
-      <c r="B592" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="s">
-        <v>593</v>
-      </c>
-      <c r="B593" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="s">
-        <v>594</v>
-      </c>
-      <c r="B594" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="s">
-        <v>595</v>
-      </c>
-      <c r="B595" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="s">
-        <v>596</v>
-      </c>
-      <c r="B596" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="s">
-        <v>597</v>
-      </c>
-      <c r="B597" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="s">
-        <v>598</v>
-      </c>
-      <c r="B598" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="s">
-        <v>599</v>
-      </c>
-      <c r="B599" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="s">
-        <v>600</v>
-      </c>
-      <c r="B600" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="s">
-        <v>601</v>
-      </c>
-      <c r="B601" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="s">
-        <v>602</v>
-      </c>
-      <c r="B602" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="s">
-        <v>603</v>
-      </c>
-      <c r="B603" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="s">
-        <v>604</v>
-      </c>
-      <c r="B604" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="s">
-        <v>605</v>
-      </c>
-      <c r="B605" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="s">
-        <v>606</v>
-      </c>
-      <c r="B606" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="s">
-        <v>607</v>
-      </c>
-      <c r="B607" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="s">
-        <v>608</v>
-      </c>
-      <c r="B608" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="s">
-        <v>609</v>
-      </c>
-      <c r="B609" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="s">
-        <v>610</v>
-      </c>
-      <c r="B610" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="s">
-        <v>611</v>
-      </c>
-      <c r="B611" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="s">
-        <v>612</v>
-      </c>
-      <c r="B612" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="s">
-        <v>613</v>
-      </c>
-      <c r="B613" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="s">
-        <v>614</v>
-      </c>
-      <c r="B614" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="s">
-        <v>615</v>
-      </c>
-      <c r="B615" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="s">
-        <v>616</v>
-      </c>
-      <c r="B616" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="s">
-        <v>617</v>
-      </c>
-      <c r="B617" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="s">
-        <v>618</v>
-      </c>
-      <c r="B618" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="s">
-        <v>619</v>
-      </c>
-      <c r="B619" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="s">
-        <v>620</v>
-      </c>
-      <c r="B620" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="s">
-        <v>621</v>
-      </c>
-      <c r="B621" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="s">
-        <v>622</v>
-      </c>
-      <c r="B622" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="s">
-        <v>623</v>
-      </c>
-      <c r="B623" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="s">
-        <v>624</v>
-      </c>
-      <c r="B624" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="s">
-        <v>625</v>
-      </c>
-      <c r="B625" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="s">
-        <v>626</v>
-      </c>
-      <c r="B626" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="s">
-        <v>627</v>
-      </c>
-      <c r="B627" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="s">
-        <v>628</v>
-      </c>
-      <c r="B628" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="s">
-        <v>629</v>
-      </c>
-      <c r="B629" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="s">
-        <v>630</v>
-      </c>
-      <c r="B630" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="s">
-        <v>631</v>
-      </c>
-      <c r="B631" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="s">
-        <v>632</v>
-      </c>
-      <c r="B632" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="s">
-        <v>633</v>
-      </c>
-      <c r="B633" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="s">
-        <v>634</v>
-      </c>
-      <c r="B634" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="s">
-        <v>635</v>
-      </c>
-      <c r="B635" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="s">
-        <v>636</v>
-      </c>
-      <c r="B636" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="s">
-        <v>637</v>
-      </c>
-      <c r="B637" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="s">
-        <v>638</v>
-      </c>
-      <c r="B638" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="s">
-        <v>639</v>
-      </c>
-      <c r="B639" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="s">
-        <v>640</v>
-      </c>
-      <c r="B640" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="s">
-        <v>641</v>
-      </c>
-      <c r="B641" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="s">
-        <v>642</v>
-      </c>
-      <c r="B642" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="s">
-        <v>643</v>
-      </c>
-      <c r="B643" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="s">
-        <v>644</v>
-      </c>
-      <c r="B644" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="s">
-        <v>645</v>
-      </c>
-      <c r="B645" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="s">
-        <v>646</v>
-      </c>
-      <c r="B646" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="s">
-        <v>647</v>
-      </c>
-      <c r="B647" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="s">
-        <v>648</v>
-      </c>
-      <c r="B648" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="s">
-        <v>649</v>
-      </c>
-      <c r="B649" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="s">
-        <v>650</v>
-      </c>
-      <c r="B650" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="s">
-        <v>651</v>
-      </c>
-      <c r="B651" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="s">
-        <v>652</v>
-      </c>
-      <c r="B652" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="s">
-        <v>653</v>
-      </c>
-      <c r="B653" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="s">
-        <v>654</v>
-      </c>
-      <c r="B654" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="s">
-        <v>655</v>
-      </c>
-      <c r="B655" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="s">
-        <v>656</v>
-      </c>
-      <c r="B656" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="s">
-        <v>657</v>
-      </c>
-      <c r="B657" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="s">
-        <v>658</v>
-      </c>
-      <c r="B658" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="s">
-        <v>659</v>
-      </c>
-      <c r="B659" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="s">
-        <v>660</v>
-      </c>
-      <c r="B660" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="s">
-        <v>661</v>
-      </c>
-      <c r="B661" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="s">
-        <v>662</v>
-      </c>
-      <c r="B662" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="s">
-        <v>663</v>
-      </c>
-      <c r="B663" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="s">
-        <v>664</v>
-      </c>
-      <c r="B664" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="s">
-        <v>665</v>
-      </c>
-      <c r="B665" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="s">
-        <v>666</v>
-      </c>
-      <c r="B666" t="n">
         <v>23</v>
       </c>
     </row>
